--- a/biology/Histoire de la zoologie et de la botanique/Franco_Andreone/Franco_Andreone.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Franco_Andreone/Franco_Andreone.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Franco Andreone, né le 23 mai 1961 à Turin (Italie), est un zoologiste italien.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Franco Andreone a travaillé sur la biodiversité de Madagascar, en collaboration avec l'université de Tananarive, le Parc Botanique et Zoologique de Tsimbazaza, le WWF et la Wildlife Conservation Society.
 Par ailleurs il est l'auteur de la découverte de plusieurs espèces d'amphibiens du genre Boophis.
